--- a/biology/Médecine/Fonds_de_garantie_des_dommages_consécutifs_à_des_actes_de_prévention,_de_diagnostic_ou_de_soins/Fonds_de_garantie_des_dommages_consécutifs_à_des_actes_de_prévention,_de_diagnostic_ou_de_soins.xlsx
+++ b/biology/Médecine/Fonds_de_garantie_des_dommages_consécutifs_à_des_actes_de_prévention,_de_diagnostic_ou_de_soins/Fonds_de_garantie_des_dommages_consécutifs_à_des_actes_de_prévention,_de_diagnostic_ou_de_soins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fonds_de_garantie_des_dommages_cons%C3%A9cutifs_%C3%A0_des_actes_de_pr%C3%A9vention,_de_diagnostic_ou_de_soins</t>
+          <t>Fonds_de_garantie_des_dommages_consécutifs_à_des_actes_de_prévention,_de_diagnostic_ou_de_soins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fonds de garantie des dommages consécutifs à des actes de prévention, de diagnostic ou de soins est un dispositif français visant à garantir l'indemnisation en responsabilité civile professionnelle des professionnels de santé libéraux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fonds_de_garantie_des_dommages_cons%C3%A9cutifs_%C3%A0_des_actes_de_pr%C3%A9vention,_de_diagnostic_ou_de_soins</t>
+          <t>Fonds_de_garantie_des_dommages_consécutifs_à_des_actes_de_prévention,_de_diagnostic_ou_de_soins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Cadre juridique  et finalité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le FAPDS a été créé par la loi de finances 2012 du 28 décembre 2011. Son fonctionnement est régi par les articles L. 426-1 et R. 427-1 et suivants du Code des assurances. Sa gestion a été confiée par la loi à la Caisse centrale de réassurance.
 Le fonds vise à compléter la prise de charge ou à se substituer à l'assureur de responsabilité civile professionnelle (RCP) des professionnels de santé libéraux pour l'indemnisation de certains accidents médicaux.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fonds_de_garantie_des_dommages_cons%C3%A9cutifs_%C3%A0_des_actes_de_pr%C3%A9vention,_de_diagnostic_ou_de_soins</t>
+          <t>Fonds_de_garantie_des_dommages_consécutifs_à_des_actes_de_prévention,_de_diagnostic_ou_de_soins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fonds tire son origine de l'inflation des indemnisations accordées par les juges en matière d'accidents médicaux, notamment dans le cas de l'obstétrique[1]. Il n'est plus rare désormais que des indemnisations dans cette discipline atteignent ou dépassent les 10 millions d'euros[2], du fait de la lourdeur de la prise en charge, à vie, d'enfants nés polyhandicapés.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fonds tire son origine de l'inflation des indemnisations accordées par les juges en matière d'accidents médicaux, notamment dans le cas de l'obstétrique. Il n'est plus rare désormais que des indemnisations dans cette discipline atteignent ou dépassent les 10 millions d'euros, du fait de la lourdeur de la prise en charge, à vie, d'enfants nés polyhandicapés.
 Cette situation amenait deux risques :
 d'une part, une augmentation continue et potentiellement illimitée des primes d'assurances de responsabilité civile professionnelle (RCP) des médecins libéraux de ces spécialités, menaçant la viabilité de leur exercice libéral, en tenant compte que les assureurs commençaient à ne plus vouloir assurer du tout certaines activités dont l'échographie obstétrique ou les accouchements ;
 d'autre part, un risque de ruine personnelle pour les médecins frappés de lourdes condamnations au-delà des plafonds réglementaires.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fonds_de_garantie_des_dommages_cons%C3%A9cutifs_%C3%A0_des_actes_de_pr%C3%A9vention,_de_diagnostic_ou_de_soins</t>
+          <t>Fonds_de_garantie_des_dommages_consécutifs_à_des_actes_de_prévention,_de_diagnostic_ou_de_soins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Financement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le FAPDS est financé par une contribution forfaitaire annuelle, auxquels sont assujettis tous les professionnels de santé libéraux. Elle est collectée avec les cotisations aux contrats d'assurance RCP de ces professionnels, cette assurance étant obligatoire pour les professionnels de santé.
 Cette contribution annuelle est de :
